--- a/lottery-system/data/results.xlsx
+++ b/lottery-system/data/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>15 18 19 21 22 28 29</t>
+  </si>
+  <si>
+    <t>02 09 11 19 25 33 35</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:37:47 CST 2026</t>
+  </si>
+  <si>
+    <t>02 11 12 23 26 29 35</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:39:02 CST 2026</t>
+  </si>
+  <si>
+    <t>01 11 12 18 23 25 36</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:39:19 CST 2026</t>
   </si>
 </sst>
 </file>
@@ -137,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -339,6 +357,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
